--- a/hw/B板/QCD_PowerBank_001B_V01_20170430.xlsx
+++ b/hw/B板/QCD_PowerBank_001B_V01_20170430.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\0Group\PowerBank\hw\B板\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\svn\QCD_PowerBank_001(车载杯座)\hw\B板\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="101">
   <si>
     <t>LED3528</t>
   </si>
@@ -91,12 +91,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>NS</t>
-  </si>
-  <si>
-    <t>C32</t>
-  </si>
-  <si>
     <t>SS54</t>
   </si>
   <si>
@@ -131,9 +125,6 @@
     <t>D51</t>
   </si>
   <si>
-    <t>FUSE_DIPAA</t>
-  </si>
-  <si>
     <t>F4</t>
   </si>
   <si>
@@ -153,12 +144,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2.2uH</t>
-  </si>
-  <si>
-    <t>COIL_2R2</t>
-  </si>
-  <si>
     <t>L1</t>
   </si>
   <si>
@@ -254,18 +239,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>插针双排_2.54</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>DC接口</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SI2302</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MOS管</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -286,10 +263,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>JK30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>LED</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -366,19 +339,42 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>15uH/SWPA6045S150MT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6504</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>电阻</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SMB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWPA4020S2R2MT</t>
+  </si>
+  <si>
+    <t>4020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6045</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S8050</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>插座双排_2.54</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUSE_DIP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UF135</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10uH/SWPA6045S2R2MT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -386,7 +382,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,6 +424,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -451,7 +455,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -472,6 +476,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -753,16 +760,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
     <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42" customWidth="1"/>
     <col min="5" max="5" width="5.125" bestFit="1" customWidth="1"/>
@@ -770,39 +777,39 @@
   <sheetData>
     <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -811,16 +818,16 @@
     </row>
     <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -829,16 +836,16 @@
     </row>
     <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
@@ -847,16 +854,16 @@
     </row>
     <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -865,16 +872,16 @@
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -883,16 +890,16 @@
     </row>
     <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -901,16 +908,16 @@
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
@@ -919,16 +926,16 @@
     </row>
     <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -937,16 +944,16 @@
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -955,16 +962,16 @@
     </row>
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -973,16 +980,16 @@
     </row>
     <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -991,7 +998,7 @@
     </row>
     <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>17</v>
@@ -1009,7 +1016,7 @@
     </row>
     <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>8</v>
@@ -1027,7 +1034,7 @@
     </row>
     <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>4</v>
@@ -1045,7 +1052,7 @@
     </row>
     <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>5</v>
@@ -1063,7 +1070,7 @@
     </row>
     <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>2</v>
@@ -1081,7 +1088,7 @@
     </row>
     <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>13</v>
@@ -1099,7 +1106,7 @@
     </row>
     <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>10</v>
@@ -1117,16 +1124,16 @@
     </row>
     <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>40</v>
+        <v>70</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -1135,16 +1142,16 @@
     </row>
     <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -1153,16 +1160,16 @@
     </row>
     <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -1171,16 +1178,16 @@
     </row>
     <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="E24" s="1">
         <v>2</v>
@@ -1189,16 +1196,16 @@
     </row>
     <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -1207,16 +1214,16 @@
     </row>
     <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -1225,16 +1232,16 @@
     </row>
     <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E27" s="1">
         <v>2</v>
@@ -1243,14 +1250,16 @@
     </row>
     <row r="28" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="C28" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -1259,16 +1268,16 @@
     </row>
     <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -1277,10 +1286,10 @@
     </row>
     <row r="30" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>0</v>
@@ -1295,16 +1304,16 @@
     </row>
     <row r="31" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E31" s="1">
         <v>6</v>
@@ -1313,16 +1322,16 @@
     </row>
     <row r="32" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E32" s="1">
         <v>18</v>
@@ -1331,16 +1340,16 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -1349,37 +1358,19 @@
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E34" s="1">
         <v>2</v>
       </c>
       <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A35" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="1">
-        <v>1</v>
-      </c>
-      <c r="F35" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
